--- a/Year 2-4/19-20/MEY4.xlsx
+++ b/Year 2-4/19-20/MEY4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouweiming/Documents/Timetable/Year 2-4/19-20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouweiming/Documents/GitHub/Class-timetables/Year 2-4/19-20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C89DCD-8BA0-A844-8AF9-2E0D068A15B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6806E5-FA95-BF4F-A882-5FF84FC7E789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="28800" firstSheet="7" activeTab="16" xr2:uid="{97E2D921-83E2-304B-A14E-2B0DFD2E41CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29780" windowHeight="11260" firstSheet="4" activeTab="16" xr2:uid="{97E2D921-83E2-304B-A14E-2B0DFD2E41CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="53">
   <si>
     <t>Monday</t>
   </si>
@@ -539,25 +539,44 @@
     </r>
   </si>
   <si>
-    <t>体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Physical Education</t>
   </si>
   <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Cayetano Conesa</t>
   </si>
   <si>
-    <t>体育</t>
+    <r>
+      <t>工程训练中心（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>A318</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
-    <t>Physical Education</t>
+    <t>X5116</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -628,12 +647,6 @@
     <font>
       <sz val="9"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF548235"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1236,7 +1249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1443,9 +1456,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1464,6 +1474,165 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1479,161 +1648,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1644,15 +1666,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1668,35 +1681,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2015,98 +2001,98 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="153" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="153" t="s">
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="153" t="s">
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="153" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="155"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="121"/>
     </row>
     <row r="2" spans="1:21" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="158" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="159" t="str">
+      <c r="M2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="160" t="s">
+      <c r="N2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158" t="s">
+      <c r="O2" s="86"/>
+      <c r="P2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="159" t="str">
+      <c r="Q2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="160" t="s">
+      <c r="R2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158" t="s">
+      <c r="S2" s="86"/>
+      <c r="T2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="159" t="str">
+      <c r="U2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
@@ -2115,28 +2101,28 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -2156,14 +2142,14 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -2206,16 +2192,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="100" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="28"/>
@@ -2230,16 +2216,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2247,10 +2233,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
       <c r="F7" s="28"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2263,19 +2249,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="95"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="101"/>
       <c r="F8" s="28"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2326,34 +2312,34 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="92" t="s">
+      <c r="N10" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="105" t="s">
+      <c r="O10" s="98"/>
+      <c r="P10" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="107"/>
+      <c r="Q10" s="104"/>
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="82" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -2379,10 +2365,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="108"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="105"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -2429,18 +2415,18 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="102" t="s">
+      <c r="N13" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="135"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
@@ -2458,14 +2444,14 @@
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
@@ -2483,14 +2469,14 @@
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="141"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -2597,16 +2583,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -2619,11 +2600,16 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R13:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2635,43 +2621,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:U15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -2739,16 +2725,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -2771,19 +2757,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -2842,16 +2828,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2875,10 +2861,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
@@ -2900,10 +2886,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="34"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="83"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="18" t="s">
@@ -2938,16 +2924,16 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
@@ -2961,7 +2947,7 @@
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -3041,16 +3027,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="115" t="s">
-        <v>27</v>
-      </c>
+      <c r="R13" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
@@ -3073,9 +3055,9 @@
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="110"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="116"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
@@ -3097,10 +3079,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="117"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -3206,10 +3188,8 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
+  <mergeCells count="14">
+    <mergeCell ref="R13:U15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="R6:R7"/>
@@ -3223,7 +3203,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="R13:R15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3235,43 +3214,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:U15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -3339,16 +3318,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -3359,16 +3338,16 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="145" t="s">
+      <c r="R3" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="145" t="s">
+      <c r="S3" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="146" t="s">
+      <c r="T3" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="147" t="s">
+      <c r="U3" s="144" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3379,19 +3358,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -3400,10 +3379,10 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="146"/>
-      <c r="U4" s="147"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="142"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="144"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="18" t="s">
@@ -3446,28 +3425,28 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="100" t="s">
+      <c r="N6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="92" t="s">
+      <c r="O6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="142" t="s">
+      <c r="P6" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="94" t="s">
+      <c r="Q6" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="142" t="s">
+      <c r="T6" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3487,14 +3466,14 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="120"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="99"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="125"/>
+      <c r="T7" s="146"/>
+      <c r="U7" s="118"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
@@ -3512,14 +3491,14 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="144"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="144"/>
-      <c r="U8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="97"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="101"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="18" t="s">
@@ -3554,32 +3533,32 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="145" t="s">
+      <c r="N10" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="145" t="s">
+      <c r="O10" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="146" t="s">
+      <c r="P10" s="143" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="147" t="s">
+      <c r="Q10" s="144" t="s">
         <v>19</v>
       </c>
       <c r="R10" s="59"/>
@@ -3603,10 +3582,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="147"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="142"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="144"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -3652,29 +3631,25 @@
       <c r="J13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="73" t="s">
+      <c r="K13" s="83"/>
+      <c r="L13" s="82" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="115" t="s">
-        <v>27</v>
-      </c>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
@@ -3692,14 +3667,14 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="116"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
@@ -3717,14 +3692,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="117"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -3830,23 +3805,7 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
+  <mergeCells count="27">
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
@@ -3861,6 +3820,19 @@
     <mergeCell ref="T6:T8"/>
     <mergeCell ref="U6:U8"/>
     <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R13:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3872,43 +3844,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:U15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -3976,16 +3948,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="75"/>
@@ -4008,19 +3980,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="28"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -4059,20 +4031,20 @@
       <c r="T5" s="26"/>
       <c r="U5" s="27"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="16" customHeight="1">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="126" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8"/>
@@ -4087,16 +4059,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4104,10 +4076,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -4120,19 +4092,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="124"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="128"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -4183,16 +4155,16 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="43"/>
@@ -4206,7 +4178,7 @@
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -4270,98 +4242,94 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="126" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="9"/>
       <c r="H13" s="37"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="100" t="s">
+      <c r="J13" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="90" t="s">
+      <c r="K13" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="142" t="s">
+      <c r="L13" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="147" t="s">
+      <c r="M13" s="144" t="s">
         <v>12</v>
       </c>
       <c r="N13" s="77"/>
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="115" t="s">
-        <v>27</v>
-      </c>
+      <c r="R13" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="147"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="144"/>
       <c r="N14" s="77"/>
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="110"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="116"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="124"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="147"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="144"/>
       <c r="N15" s="77"/>
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="117"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -4467,19 +4435,17 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="J13:J15"/>
+  <mergeCells count="26">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
@@ -4487,16 +4453,15 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="R13:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4508,43 +4473,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:U15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -4612,16 +4577,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="75"/>
@@ -4644,19 +4609,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="28"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -4715,16 +4680,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4748,10 +4713,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
@@ -4803,7 +4768,7 @@
       <c r="T9" s="26"/>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="16" customHeight="1">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -4811,34 +4776,34 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="92" t="s">
+      <c r="N10" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="105" t="s">
+      <c r="O10" s="98"/>
+      <c r="P10" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="35" t="s">
+      <c r="Q10" s="104"/>
+      <c r="R10" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -4864,10 +4829,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="108"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="105"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -4913,29 +4878,25 @@
       <c r="J13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="73" t="s">
+      <c r="K13" s="83"/>
+      <c r="L13" s="82" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="115" t="s">
-        <v>27</v>
-      </c>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
@@ -4953,14 +4914,14 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="116"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
@@ -4978,14 +4939,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="117"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -5091,7 +5052,12 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="19">
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T6:T7"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="N13:Q15"/>
@@ -5105,15 +5071,7 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5125,43 +5083,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13:S15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -5229,16 +5187,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="75"/>
@@ -5254,26 +5212,26 @@
       <c r="T3" s="5"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="26">
       <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="78" t="s">
-        <v>27</v>
+      <c r="D4" s="82" t="s">
+        <v>50</v>
       </c>
       <c r="E4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="28"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -5316,10 +5274,10 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="96" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="148" t="s">
@@ -5340,16 +5298,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5357,8 +5315,8 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="149"/>
       <c r="E7" s="151"/>
       <c r="F7" s="28"/>
@@ -5373,17 +5331,17 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="150"/>
       <c r="E8" s="151"/>
       <c r="F8" s="28"/>
@@ -5436,16 +5394,16 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
@@ -5456,10 +5414,10 @@
       <c r="O10" s="12"/>
       <c r="P10" s="71"/>
       <c r="Q10" s="58"/>
-      <c r="R10" s="35" t="s">
+      <c r="R10" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -5534,8 +5492,8 @@
       <c r="J13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="73" t="s">
+      <c r="K13" s="83"/>
+      <c r="L13" s="82" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="70" t="s">
@@ -5545,16 +5503,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="115" t="s">
-        <v>27</v>
-      </c>
+      <c r="R13" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
@@ -5577,9 +5531,9 @@
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="110"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="116"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
@@ -5601,10 +5555,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="117"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -5710,15 +5664,12 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
+  <mergeCells count="18">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -5727,11 +5678,11 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="R13:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5743,43 +5694,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:U15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -5847,16 +5798,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="75"/>
@@ -5879,19 +5830,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="28"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -5950,16 +5901,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5983,10 +5934,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
@@ -6046,16 +5997,16 @@
       <c r="C10" s="37"/>
       <c r="D10" s="38"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
@@ -6069,7 +6020,7 @@
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -6145,22 +6096,18 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="115" t="s">
-        <v>27</v>
-      </c>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
@@ -6178,14 +6125,14 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="116"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
@@ -6203,14 +6150,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="117"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -6316,25 +6263,22 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
+  <mergeCells count="15">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="N13:Q15"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6346,43 +6290,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:U15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -6450,16 +6394,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="75"/>
@@ -6482,19 +6426,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="28"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -6533,7 +6477,7 @@
       <c r="T5" s="26"/>
       <c r="U5" s="27"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="16" customHeight="1">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -6544,49 +6488,49 @@
       <c r="F6" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="96" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="151" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J6" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="92" t="s">
+      <c r="L6" s="96" t="s">
         <v>24</v>
       </c>
       <c r="M6" s="151" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N6" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="92" t="s">
+      <c r="O6" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="92" t="s">
+      <c r="P6" s="96" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="151" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6599,21 +6543,21 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="151"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
       <c r="I7" s="151"/>
       <c r="J7" s="151"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
       <c r="M7" s="151"/>
       <c r="N7" s="151"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="125"/>
       <c r="Q7" s="151"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
@@ -6624,16 +6568,16 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="151"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="151"/>
       <c r="J8" s="151"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
       <c r="M8" s="151"/>
       <c r="N8" s="151"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
       <c r="Q8" s="151"/>
       <c r="R8" s="29"/>
       <c r="S8" s="30"/>
@@ -6669,16 +6613,16 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="36"/>
@@ -6688,8 +6632,8 @@
       <c r="J10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="73" t="s">
+      <c r="K10" s="83"/>
+      <c r="L10" s="82" t="s">
         <v>36</v>
       </c>
       <c r="M10" s="70" t="s">
@@ -6702,7 +6646,7 @@
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -6769,103 +6713,99 @@
       <c r="B13" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="96" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="151" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F13" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="92" t="s">
+      <c r="H13" s="96" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="151" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J13" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="92" t="s">
+      <c r="K13" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="92" t="s">
+      <c r="L13" s="96" t="s">
         <v>24</v>
       </c>
       <c r="M13" s="151" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N13" s="72"/>
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="133" t="s">
+      <c r="R13" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="135" t="s">
-        <v>50</v>
-      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="151"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="151"/>
       <c r="F14" s="151"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="121"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="121"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
       <c r="M14" s="151"/>
       <c r="N14" s="72"/>
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
         <v>10</v>
       </c>
       <c r="B15" s="151"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="151"/>
       <c r="F15" s="151"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="151"/>
       <c r="J15" s="151"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="151"/>
       <c r="N15" s="72"/>
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="141"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -6971,7 +6911,29 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="38">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="Q6:Q8"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
@@ -6988,31 +6950,6 @@
     <mergeCell ref="P6:P8"/>
     <mergeCell ref="F6:F8"/>
     <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7024,43 +6961,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="N13" sqref="N13:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -7128,52 +7065,52 @@
       <c r="C3" s="56"/>
       <c r="D3" s="2"/>
       <c r="E3" s="57"/>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="142" t="s">
+      <c r="L3" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="92" t="s">
+      <c r="O3" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="142" t="s">
+      <c r="P3" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="Q3" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="118" t="s">
+      <c r="R3" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="92" t="s">
+      <c r="S3" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="90" t="s">
+      <c r="T3" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="94" t="s">
+      <c r="U3" s="100" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7185,22 +7122,22 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="57"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="91"/>
-      <c r="U4" s="95"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="101"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="18" t="s">
@@ -7234,10 +7171,10 @@
       <c r="B6" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="145" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="151" t="s">
@@ -7246,46 +7183,46 @@
       <c r="F6" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="145" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="92" t="s">
+      <c r="J6" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="92" t="s">
+      <c r="K6" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="142" t="s">
+      <c r="L6" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="90" t="s">
+      <c r="M6" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="92" t="s">
+      <c r="N6" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="92" t="s">
+      <c r="O6" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="142" t="s">
+      <c r="P6" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="90" t="s">
+      <c r="Q6" s="98" t="s">
         <v>41</v>
       </c>
       <c r="R6" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="145" t="s">
+      <c r="S6" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="142" t="s">
+      <c r="T6" s="145" t="s">
         <v>47</v>
       </c>
       <c r="U6" s="151" t="s">
@@ -7297,24 +7234,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="151"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="143"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="146"/>
       <c r="E7" s="151"/>
       <c r="F7" s="151"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="143"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="146"/>
       <c r="I7" s="151"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="98"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="125"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="146"/>
+      <c r="Q7" s="117"/>
       <c r="R7" s="152"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="143"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="146"/>
       <c r="U7" s="151"/>
     </row>
     <row r="8" spans="1:21">
@@ -7322,24 +7259,24 @@
         <v>5</v>
       </c>
       <c r="B8" s="151"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="144"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="147"/>
       <c r="E8" s="151"/>
       <c r="F8" s="151"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="144"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="147"/>
       <c r="I8" s="151"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="93"/>
-      <c r="O8" s="93"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="91"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="99"/>
       <c r="R8" s="152"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="144"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="147"/>
       <c r="U8" s="151"/>
     </row>
     <row r="9" spans="1:21">
@@ -7410,10 +7347,10 @@
       <c r="C11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="79" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="33"/>
@@ -7446,7 +7383,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="21"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="81"/>
+      <c r="K12" s="80"/>
       <c r="L12" s="20"/>
       <c r="M12" s="21"/>
       <c r="N12" s="25"/>
@@ -7465,10 +7402,10 @@
       <c r="B13" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="142" t="s">
+      <c r="D13" s="145" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="151" t="s">
@@ -7477,10 +7414,10 @@
       <c r="F13" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="142" t="s">
+      <c r="H13" s="145" t="s">
         <v>47</v>
       </c>
       <c r="I13" s="151" t="s">
@@ -7489,81 +7426,77 @@
       <c r="J13" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="92" t="s">
+      <c r="K13" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="L13" s="142" t="s">
+      <c r="L13" s="145" t="s">
         <v>47</v>
       </c>
       <c r="M13" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="133" t="s">
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134" t="s">
-        <v>50</v>
-      </c>
-      <c r="U13" s="135" t="s">
-        <v>50</v>
-      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="151"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="143"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="146"/>
       <c r="E14" s="151"/>
       <c r="F14" s="151"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="143"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="146"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151"/>
-      <c r="K14" s="121"/>
-      <c r="L14" s="143"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="146"/>
       <c r="M14" s="151"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
         <v>10</v>
       </c>
       <c r="B15" s="151"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="144"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="147"/>
       <c r="E15" s="151"/>
       <c r="F15" s="151"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="144"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="151"/>
       <c r="J15" s="151"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="144"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="147"/>
       <c r="M15" s="151"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="141"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -7669,50 +7602,8 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="55">
+    <mergeCell ref="R13:U15"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
@@ -7728,6 +7619,45 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="N13:Q15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7739,98 +7669,98 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U19"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="153" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="153" t="s">
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="153" t="s">
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="153" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="155"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="121"/>
     </row>
     <row r="2" spans="1:21" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="159" t="str">
+      <c r="M2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="160" t="s">
+      <c r="N2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158" t="s">
+      <c r="O2" s="86"/>
+      <c r="P2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="159" t="str">
+      <c r="Q2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="160" t="s">
+      <c r="R2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158" t="s">
+      <c r="S2" s="86"/>
+      <c r="T2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="159" t="str">
+      <c r="U2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
@@ -7843,16 +7773,16 @@
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -7872,22 +7802,22 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -7946,16 +7876,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7979,10 +7909,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
@@ -8042,16 +7972,16 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
@@ -8065,7 +7995,7 @@
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="82" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -8145,12 +8075,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="135"/>
+      <c r="R13" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
@@ -8172,10 +8102,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
@@ -8197,10 +8127,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="140"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="141"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -8332,98 +8262,98 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U19"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="153" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="153" t="s">
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="153" t="s">
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="153" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="155"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="121"/>
     </row>
     <row r="2" spans="1:21" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="159" t="str">
+      <c r="M2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="160" t="s">
+      <c r="N2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158" t="s">
+      <c r="O2" s="86"/>
+      <c r="P2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="159" t="str">
+      <c r="Q2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="160" t="s">
+      <c r="R2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158" t="s">
+      <c r="S2" s="86"/>
+      <c r="T2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="159" t="str">
+      <c r="U2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
@@ -8436,16 +8366,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -8468,19 +8398,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -8523,16 +8453,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="126" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8"/>
@@ -8546,7 +8476,7 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="162"/>
+      <c r="Q6" s="90"/>
       <c r="R6" s="33"/>
       <c r="S6" s="33"/>
       <c r="T6" s="33"/>
@@ -8556,10 +8486,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -8571,7 +8501,7 @@
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="162"/>
+      <c r="Q7" s="90"/>
       <c r="R7" s="33"/>
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
@@ -8581,10 +8511,10 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="124"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="128"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8635,16 +8565,16 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
@@ -8714,16 +8644,16 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="126" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
@@ -8734,27 +8664,27 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="135"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -8763,23 +8693,23 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="124"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -8788,14 +8718,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="141"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -8902,12 +8832,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -8915,12 +8844,13 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8932,98 +8862,98 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U19"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="153" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="153" t="s">
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="153" t="s">
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="153" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="155"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="121"/>
     </row>
     <row r="2" spans="1:21" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="159" t="str">
+      <c r="M2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="160" t="s">
+      <c r="N2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158" t="s">
+      <c r="O2" s="86"/>
+      <c r="P2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="159" t="str">
+      <c r="Q2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="160" t="s">
+      <c r="R2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158" t="s">
+      <c r="S2" s="86"/>
+      <c r="T2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="159" t="str">
+      <c r="U2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
@@ -9036,16 +8966,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -9068,19 +8998,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -9139,16 +9069,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9172,10 +9102,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
@@ -9235,16 +9165,16 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
@@ -9258,7 +9188,7 @@
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="82" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -9338,12 +9268,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="135"/>
+      <c r="R13" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
@@ -9365,10 +9295,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
@@ -9390,10 +9320,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="140"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="141"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -9525,98 +9455,98 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U19"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="153" t="s">
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="153" t="s">
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="153" t="s">
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="153" t="s">
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="155"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="121"/>
     </row>
     <row r="2" spans="1:21" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="159" t="s">
+      <c r="E2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="160" t="s">
+      <c r="F2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="160" t="s">
+      <c r="J2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158" t="s">
+      <c r="K2" s="86"/>
+      <c r="L2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="159" t="str">
+      <c r="M2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="160" t="s">
+      <c r="N2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158" t="s">
+      <c r="O2" s="86"/>
+      <c r="P2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="159" t="str">
+      <c r="Q2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="160" t="s">
+      <c r="R2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158" t="s">
+      <c r="S2" s="86"/>
+      <c r="T2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="159" t="str">
+      <c r="U2" s="87" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
@@ -9629,16 +9559,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -9661,19 +9591,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -9716,56 +9646,56 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="126" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="90" t="s">
+      <c r="G6" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="94" t="s">
+      <c r="H6" s="145" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="90" t="s">
+      <c r="K6" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="94" t="s">
+      <c r="L6" s="145" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="100" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9773,43 +9703,43 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="98"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="131"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="98"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="131"/>
-      <c r="M7" s="99"/>
+      <c r="M7" s="118"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="91"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="132"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="91"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="132"/>
-      <c r="M8" s="95"/>
+      <c r="M8" s="101"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -9852,42 +9782,42 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="82" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="92" t="s">
+      <c r="K10" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="127" t="s">
+      <c r="L10" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="133" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="98"/>
+      <c r="P10" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="125" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="107"/>
+      <c r="Q10" s="104"/>
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="82" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -9909,14 +9839,14 @@
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="108"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="105"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -9951,102 +9881,102 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="126" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="90" t="s">
+      <c r="G13" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="130" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="94" t="s">
+      <c r="H13" s="145" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="100" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="84"/>
-      <c r="L13" s="83" t="s">
+      <c r="K13" s="83"/>
+      <c r="L13" s="82" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="135"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="98"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="131"/>
-      <c r="I14" s="99"/>
+      <c r="I14" s="118"/>
       <c r="J14" s="67"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="91"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="132"/>
-      <c r="I15" s="95"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="67"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
       <c r="M15" s="70"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="141"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -10153,24 +10083,19 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="M6:M8"/>
@@ -10179,23 +10104,28 @@
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="N13:Q15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10207,43 +10137,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -10311,10 +10241,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="100"/>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -10336,10 +10266,10 @@
       <c r="C4" s="35"/>
       <c r="D4" s="60"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -10382,68 +10312,68 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="122"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="129"/>
-      <c r="G6" s="90"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="130"/>
-      <c r="I6" s="94"/>
+      <c r="I6" s="100"/>
       <c r="J6" s="129"/>
-      <c r="K6" s="90"/>
+      <c r="K6" s="98"/>
       <c r="L6" s="130"/>
-      <c r="M6" s="94"/>
+      <c r="M6" s="100"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="90"/>
-      <c r="U6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="96"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="100"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="98"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="131"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="98"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="131"/>
-      <c r="M7" s="99"/>
+      <c r="M7" s="118"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="91"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="99"/>
       <c r="H8" s="132"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="91"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="99"/>
       <c r="L8" s="132"/>
-      <c r="M8" s="95"/>
+      <c r="M8" s="101"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -10490,14 +10420,14 @@
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="107"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="104"/>
       <c r="R10" s="40"/>
       <c r="S10" s="35"/>
       <c r="T10" s="41"/>
@@ -10515,14 +10445,14 @@
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="108"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="134"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="105"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -10557,76 +10487,76 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="100"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="122"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="129"/>
-      <c r="G13" s="90"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="130"/>
-      <c r="I13" s="94"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="67"/>
       <c r="K13" s="34"/>
       <c r="L13" s="73"/>
       <c r="M13" s="70"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="133"/>
-      <c r="S13" s="134"/>
-      <c r="T13" s="134"/>
-      <c r="U13" s="135"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="98"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="117"/>
       <c r="H14" s="131"/>
-      <c r="I14" s="99"/>
+      <c r="I14" s="118"/>
       <c r="J14" s="67"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="138"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="91"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="99"/>
       <c r="H15" s="132"/>
-      <c r="I15" s="95"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="67"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="70"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="140"/>
-      <c r="T15" s="140"/>
-      <c r="U15" s="141"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -10730,16 +10660,23 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
     <mergeCell ref="N13:Q15"/>
     <mergeCell ref="R13:U15"/>
     <mergeCell ref="F6:F8"/>
@@ -10756,23 +10693,16 @@
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10784,43 +10714,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:U15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -10888,26 +10818,34 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="3"/>
+      <c r="N3" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="118" t="s">
+        <v>15</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
@@ -10920,27 +10858,27 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="101"/>
       <c r="R4" s="14"/>
       <c r="S4" s="15"/>
       <c r="T4" s="16"/>
@@ -10987,20 +10925,28 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="N6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="O6" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11024,10 +10970,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
@@ -11087,16 +11033,16 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
@@ -11110,7 +11056,7 @@
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -11124,10 +11070,10 @@
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="34"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="43"/>
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
@@ -11186,22 +11132,18 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="115" t="s">
-        <v>27</v>
-      </c>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
@@ -11219,14 +11161,14 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="116"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
@@ -11244,14 +11186,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="117"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -11357,25 +11299,26 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
+  <mergeCells count="19">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="N13:Q15"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11387,43 +11330,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:U15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -11491,16 +11434,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -11523,19 +11466,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -11574,20 +11517,20 @@
       <c r="T5" s="26"/>
       <c r="U5" s="27"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="16" customHeight="1">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="126" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8"/>
@@ -11602,16 +11545,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11619,10 +11562,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -11635,19 +11578,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="124"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="128"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -11698,16 +11641,16 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
@@ -11721,7 +11664,7 @@
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -11785,16 +11728,16 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="126" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
@@ -11804,8 +11747,8 @@
       <c r="J13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="73" t="s">
+      <c r="K13" s="83"/>
+      <c r="L13" s="82" t="s">
         <v>36</v>
       </c>
       <c r="M13" s="70" t="s">
@@ -11815,25 +11758,21 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="115" t="s">
-        <v>27</v>
-      </c>
+      <c r="R13" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -11847,18 +11786,18 @@
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
       <c r="R14" s="110"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="116"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="124"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -11871,10 +11810,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="117"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -11980,15 +11919,17 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="R13:R15"/>
+  <mergeCells count="22">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
@@ -11996,16 +11937,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="R13:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12017,43 +11953,43 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:U15"/>
+      <selection activeCell="B3" sqref="B3:U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="63"/>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="88" t="s">
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="85" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="88" t="s">
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="85" t="s">
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="87"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="139"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="64" t="s">
@@ -12121,16 +12057,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="90" t="s">
+      <c r="G3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="94" t="s">
+      <c r="I3" s="100" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -12153,19 +12089,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="101"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="101"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -12204,21 +12140,21 @@
       <c r="T5" s="26"/>
       <c r="U5" s="27"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="16" customHeight="1">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="122" t="s">
-        <v>33</v>
+      <c r="E6" s="153" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9"/>
@@ -12232,16 +12168,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="100" t="s">
+      <c r="R6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="92" t="s">
+      <c r="S6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="90" t="s">
+      <c r="T6" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="94" t="s">
+      <c r="U6" s="100" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12249,10 +12185,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="123"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -12265,19 +12201,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="101"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="124"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="128"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -12320,7 +12256,7 @@
       <c r="T9" s="26"/>
       <c r="U9" s="27"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="16" customHeight="1">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -12328,34 +12264,34 @@
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="83" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="92" t="s">
+      <c r="N10" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="90"/>
-      <c r="P10" s="105" t="s">
+      <c r="O10" s="98"/>
+      <c r="P10" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="107"/>
+      <c r="Q10" s="104"/>
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="35" t="s">
+      <c r="S10" s="81" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -12381,10 +12317,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="108"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="105"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -12419,16 +12355,16 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="92" t="s">
+      <c r="D13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="122" t="s">
+      <c r="E13" s="126" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
@@ -12439,31 +12375,27 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="103" t="s">
+      <c r="N13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" s="115" t="s">
-        <v>27</v>
-      </c>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="106" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="108"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -12472,23 +12404,23 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="116"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="110"/>
+      <c r="T14" s="110"/>
+      <c r="U14" s="111"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="124"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="128"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -12497,14 +12429,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="117"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="112"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="114"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="18" t="s">
@@ -12610,24 +12542,12 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
+  <mergeCells count="27">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -12636,11 +12556,20 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="N13:Q15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Year 2-4/19-20/MEY4.xlsx
+++ b/Year 2-4/19-20/MEY4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymx/Documents/GitHub/Class-timetables/Year 2-4/19-20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E73D16-167E-7747-8398-B6C42629BC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D4FD8-508E-3648-AA9D-369DB0F9A850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29780" windowHeight="11260" firstSheet="4" activeTab="16" xr2:uid="{97E2D921-83E2-304B-A14E-2B0DFD2E41CD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29780" windowHeight="11260" firstSheet="4" activeTab="13" xr2:uid="{97E2D921-83E2-304B-A14E-2B0DFD2E41CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="49">
   <si>
     <t>Monday</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>X2221</t>
+  </si>
+  <si>
+    <t>X9402</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1374,6 +1377,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1386,90 +1503,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1491,6 +1524,9 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,27 +1548,24 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1551,6 +1584,15 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1563,44 +1605,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1926,48 +1949,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="132" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="132" t="s">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="132" t="s">
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="132" t="s">
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -2053,28 +2076,28 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="138" t="s">
+      <c r="E3" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -2094,14 +2117,14 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -2144,16 +2167,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="151" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="28"/>
@@ -2168,16 +2191,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2185,10 +2208,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
       <c r="F7" s="28"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2201,19 +2224,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="143"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="141"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="152"/>
       <c r="F8" s="28"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2280,14 +2303,14 @@
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="138" t="s">
+      <c r="N10" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="136"/>
-      <c r="P10" s="151" t="s">
+      <c r="O10" s="149"/>
+      <c r="P10" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="153"/>
+      <c r="Q10" s="155"/>
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
@@ -2317,10 +2340,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="154"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="156"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -2367,18 +2390,18 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="148" t="s">
+      <c r="N13" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155" t="s">
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -2396,14 +2419,14 @@
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -2421,14 +2444,14 @@
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
-      <c r="N15" s="148"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -2535,16 +2558,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -2557,13 +2577,16 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R13:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2582,48 +2605,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="179" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182" t="s">
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="179" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182" t="s">
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -2713,16 +2736,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -2754,10 +2777,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -2816,16 +2839,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2849,10 +2872,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -3015,12 +3038,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="156" t="s">
+      <c r="R13" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -3042,10 +3065,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -3067,10 +3090,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -3211,48 +3234,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="179" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182" t="s">
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="179" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182" t="s">
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -3342,16 +3365,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -3362,16 +3385,16 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="188" t="s">
+      <c r="R3" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="188" t="s">
+      <c r="S3" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="189" t="s">
+      <c r="T3" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="190" t="s">
+      <c r="U3" s="200" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3391,10 +3414,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -3403,10 +3426,10 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="188"/>
-      <c r="T4" s="189"/>
-      <c r="U4" s="190"/>
+      <c r="R4" s="198"/>
+      <c r="S4" s="198"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="200"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="18" t="s">
@@ -3449,28 +3472,28 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="146" t="s">
+      <c r="N6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="138" t="s">
+      <c r="O6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="171" t="s">
+      <c r="P6" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="140" t="s">
+      <c r="Q6" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="171" t="s">
+      <c r="T6" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3490,14 +3513,14 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="166"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="186"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="166"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="186"/>
-      <c r="U7" s="145"/>
+      <c r="N7" s="176"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="169"/>
+      <c r="R7" s="176"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="196"/>
+      <c r="U7" s="169"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -3515,14 +3538,14 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="147"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="187"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="187"/>
-      <c r="U8" s="141"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="148"/>
+      <c r="P8" s="197"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="146"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="152"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="18" t="s">
@@ -3573,16 +3596,16 @@
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="188" t="s">
+      <c r="N10" s="198" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="188" t="s">
+      <c r="O10" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="189" t="s">
+      <c r="P10" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="190" t="s">
+      <c r="Q10" s="200" t="s">
         <v>19</v>
       </c>
       <c r="R10" s="59"/>
@@ -3606,10 +3629,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="188"/>
-      <c r="O11" s="188"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="190"/>
+      <c r="N11" s="198"/>
+      <c r="O11" s="198"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="200"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -3662,18 +3685,18 @@
       <c r="M13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155" t="s">
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -3691,14 +3714,14 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -3716,14 +3739,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -3830,6 +3853,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="T6:T8"/>
     <mergeCell ref="U6:U8"/>
     <mergeCell ref="N13:Q15"/>
@@ -3846,19 +3882,6 @@
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="R13:U15"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3877,48 +3900,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="179" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182" t="s">
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="179" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182" t="s">
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -4008,16 +4031,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="75"/>
@@ -4049,10 +4072,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="28"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -4095,16 +4118,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="178" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8"/>
@@ -4119,16 +4142,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4136,10 +4159,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="169"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="179"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -4152,19 +4175,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="170"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="180"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -4302,94 +4325,94 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="168" t="s">
+      <c r="E13" s="178" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="9"/>
       <c r="H13" s="37"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="146" t="s">
+      <c r="J13" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="136" t="s">
+      <c r="K13" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="171" t="s">
+      <c r="L13" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="190" t="s">
+      <c r="M13" s="200" t="s">
         <v>12</v>
       </c>
       <c r="N13" s="77"/>
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="156" t="s">
+      <c r="R13" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="169"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="179"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="186"/>
-      <c r="M14" s="190"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="200"/>
       <c r="N14" s="77"/>
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="170"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="180"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="190"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="197"/>
+      <c r="M15" s="200"/>
       <c r="N15" s="77"/>
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -4496,15 +4519,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
@@ -4518,12 +4538,15 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="J13:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4542,103 +4565,103 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="198" t="s">
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="198" t="s">
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="198" t="s">
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="198" t="s">
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="B2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="204" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="206" t="s">
+      <c r="F2" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="203" t="str">
+      <c r="J2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="203" t="str">
+      <c r="N2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="203" t="str">
+      <c r="R2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
@@ -4673,16 +4696,16 @@
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="92"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="93"/>
@@ -4714,10 +4737,10 @@
       <c r="E4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="98"/>
       <c r="K4" s="99"/>
       <c r="L4" s="99"/>
@@ -4776,16 +4799,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4809,10 +4832,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -4880,14 +4903,14 @@
       <c r="K10" s="111"/>
       <c r="L10" s="112"/>
       <c r="M10" s="114"/>
-      <c r="N10" s="138" t="s">
+      <c r="N10" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="136"/>
-      <c r="P10" s="151" t="s">
+      <c r="O10" s="149"/>
+      <c r="P10" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="153"/>
+      <c r="Q10" s="155"/>
       <c r="R10" s="126" t="s">
         <v>20</v>
       </c>
@@ -4917,10 +4940,10 @@
       <c r="K11" s="111"/>
       <c r="L11" s="112"/>
       <c r="M11" s="114"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="154"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="156"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -4958,7 +4981,7 @@
       <c r="B13" s="110"/>
       <c r="C13" s="99"/>
       <c r="D13" s="111"/>
-      <c r="E13" s="207"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
@@ -4975,18 +4998,18 @@
       <c r="M13" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155" t="s">
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -4995,7 +5018,7 @@
       <c r="B14" s="110"/>
       <c r="C14" s="111"/>
       <c r="D14" s="111"/>
-      <c r="E14" s="207"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -5004,14 +5027,14 @@
       <c r="K14" s="111"/>
       <c r="L14" s="111"/>
       <c r="M14" s="100"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -5029,14 +5052,14 @@
       <c r="K15" s="111"/>
       <c r="L15" s="111"/>
       <c r="M15" s="100"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -5143,6 +5166,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="N13:Q15"/>
@@ -5159,11 +5187,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="R13:U15"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5174,7 +5197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C35BD9F-A5E8-4A47-B1CC-F66903582EA6}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:U19"/>
     </sheetView>
   </sheetViews>
@@ -5182,103 +5205,103 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="198" t="s">
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="198" t="s">
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="198" t="s">
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="198" t="s">
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="B2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="204" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="206" t="s">
+      <c r="F2" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="203" t="str">
+      <c r="J2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="203" t="str">
+      <c r="N2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="203" t="str">
+      <c r="R2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
@@ -5313,16 +5336,16 @@
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="92"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="93"/>
@@ -5343,13 +5366,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="69"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="126"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="68"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="98"/>
       <c r="K4" s="99"/>
       <c r="L4" s="99"/>
@@ -5392,16 +5415,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="191" t="s">
+      <c r="D6" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="194" t="s">
+      <c r="E6" s="207" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="98"/>
@@ -5415,28 +5438,20 @@
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6" s="140" t="s">
-        <v>15</v>
-      </c>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="58"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="194"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="207"/>
       <c r="F7" s="98"/>
       <c r="G7" s="99"/>
       <c r="H7" s="99"/>
@@ -5448,21 +5463,656 @@
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="58"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="194"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="207"/>
       <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="211"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="212"/>
+      <c r="R9" s="213"/>
+      <c r="S9" s="213"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="123"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="110"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="214"/>
+      <c r="U10" s="215"/>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="107"/>
+    </row>
+    <row r="13" spans="1:29" ht="16" customHeight="1">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="110"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="134"/>
+      <c r="L13" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" s="7">
+        <v>9</v>
+      </c>
+      <c r="B14" s="110"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="7">
+        <v>10</v>
+      </c>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="24" t="str">
+        <f>IF(SUM(N16:P16)&gt;0,SUM(N16:P16),"")</f>
+        <v/>
+      </c>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="107"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="115"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="101"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="108"/>
+      <c r="T17" s="108"/>
+      <c r="U17" s="102"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="101"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="102"/>
+    </row>
+    <row r="19" spans="1:21" ht="17" thickBot="1">
+      <c r="A19" s="51">
+        <v>13</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="R13:U15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E0879-4EF1-E649-82FA-57B6C7DC3E32}">
+  <dimension ref="A1:AC19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:U19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="17" thickBot="1">
+      <c r="A1" s="63"/>
+      <c r="B1" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="201" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="201" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="201" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="201" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="170" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
+    </row>
+    <row r="2" spans="1:29" ht="17" thickBot="1">
+      <c r="A2" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="137" t="str">
+        <f>E2</f>
+        <v>Venue</v>
+      </c>
+      <c r="N2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="137" t="str">
+        <f>E2</f>
+        <v>Venue</v>
+      </c>
+      <c r="R2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="137" t="str">
+        <f>E2</f>
+        <v>Venue</v>
+      </c>
+      <c r="V2" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="130" t="str">
+        <f>L2</f>
+        <v>Teacher</v>
+      </c>
+      <c r="Z2" s="131" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="88" t="str">
+        <f>P2</f>
+        <v>Teacher</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="145" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="149" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="151" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="93"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="97"/>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="102"/>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="107"/>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="121"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="134" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="145" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="147" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="149" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="134" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="121"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="121"/>
       <c r="G8" s="99"/>
       <c r="H8" s="99"/>
       <c r="I8" s="100"/>
@@ -5512,10 +6162,18 @@
       <c r="C10" s="111"/>
       <c r="D10" s="112"/>
       <c r="E10" s="113"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="128"/>
+      <c r="F10" s="134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="132" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="134" t="s">
+        <v>25</v>
+      </c>
       <c r="J10" s="110"/>
       <c r="K10" s="111"/>
       <c r="L10" s="112"/>
@@ -5524,16 +6182,16 @@
       <c r="O10" s="12"/>
       <c r="P10" s="71"/>
       <c r="Q10" s="58"/>
-      <c r="R10" s="126" t="s">
+      <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="126" t="s">
+      <c r="S10" s="132" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="60" t="s">
+      <c r="U10" s="42" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5594,31 +6252,27 @@
       <c r="B13" s="110"/>
       <c r="C13" s="99"/>
       <c r="D13" s="111"/>
-      <c r="E13" s="207"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="128"/>
-      <c r="L13" s="127" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="156" t="s">
+      <c r="J13" s="124"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="143" t="s">
+        <v>30</v>
+      </c>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -5627,7 +6281,7 @@
       <c r="B14" s="110"/>
       <c r="C14" s="111"/>
       <c r="D14" s="111"/>
-      <c r="E14" s="207"/>
+      <c r="E14" s="141"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
       <c r="H14" s="33"/>
@@ -5635,15 +6289,15 @@
       <c r="J14" s="124"/>
       <c r="K14" s="111"/>
       <c r="L14" s="111"/>
-      <c r="M14" s="207"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -5660,15 +6314,15 @@
       <c r="J15" s="110"/>
       <c r="K15" s="111"/>
       <c r="L15" s="111"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -5774,35 +6428,32 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="17">
+    <mergeCell ref="N13:Q15"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R13:U15"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1E0879-4EF1-E649-82FA-57B6C7DC3E32}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DCF3E4-7E3A-4C42-8864-35C69F75056A}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5813,103 +6464,103 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="198" t="s">
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="198" t="s">
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="198" t="s">
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="198" t="s">
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="203" t="s">
+      <c r="B2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="204" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="206" t="s">
+      <c r="F2" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="203" t="str">
+      <c r="J2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="203" t="str">
+      <c r="N2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="203" t="str">
+      <c r="R2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
@@ -5944,16 +6595,16 @@
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="92"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="93"/>
@@ -5985,10 +6636,10 @@
       <c r="E4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="98"/>
       <c r="K4" s="99"/>
       <c r="L4" s="99"/>
@@ -6027,44 +6678,36 @@
       <c r="T5" s="106"/>
       <c r="U5" s="107"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" ht="16" customHeight="1">
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="128" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="128" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="174" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6072,56 +6715,48 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="128" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="175"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="29"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="76"/>
       <c r="S8" s="30"/>
       <c r="T8" s="108"/>
       <c r="U8" s="109"/>
@@ -6155,26 +6790,32 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="128" t="s">
+      <c r="B10" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="C10" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="126" t="s">
+      <c r="D10" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="128" t="s">
+      <c r="E10" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="114"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="128"/>
+      <c r="L10" s="127" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>25</v>
+      </c>
       <c r="N10" s="59"/>
       <c r="O10" s="12"/>
       <c r="P10" s="71"/>
@@ -6246,644 +6887,6 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155" t="s">
-        <v>41</v>
-      </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" s="7">
-        <v>9</v>
-      </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="111"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" s="7">
-        <v>10</v>
-      </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="111"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="105"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="24" t="str">
-        <f>IF(SUM(N16:P16)&gt;0,SUM(N16:P16),"")</f>
-        <v/>
-      </c>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="107"/>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="7">
-        <v>11</v>
-      </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="101"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="102"/>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="7">
-        <v>12</v>
-      </c>
-      <c r="B18" s="117"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
-      <c r="U18" s="102"/>
-    </row>
-    <row r="19" spans="1:21" ht="17" thickBot="1">
-      <c r="A19" s="51">
-        <v>13</v>
-      </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="T6:T7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59DCF3E4-7E3A-4C42-8864-35C69F75056A}">
-  <dimension ref="A1:AC19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:29" ht="17" thickBot="1">
-      <c r="A1" s="63"/>
-      <c r="B1" s="198" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="198" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="198" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="198" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="198" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="132" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
-    </row>
-    <row r="2" spans="1:29" ht="17" thickBot="1">
-      <c r="A2" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="203" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="204" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="206" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="203" t="str">
-        <f>E2</f>
-        <v>Venue</v>
-      </c>
-      <c r="N2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="203" t="str">
-        <f>E2</f>
-        <v>Venue</v>
-      </c>
-      <c r="R2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="203" t="str">
-        <f>E2</f>
-        <v>Venue</v>
-      </c>
-      <c r="V2" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="130" t="str">
-        <f>L2</f>
-        <v>Teacher</v>
-      </c>
-      <c r="Z2" s="131" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="88" t="str">
-        <f>P2</f>
-        <v>Teacher</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="136" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="138" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="140" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="93"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="91"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="97"/>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="126" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="102"/>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="107"/>
-    </row>
-    <row r="6" spans="1:29" ht="16" customHeight="1">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="164" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="T6" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6" s="140" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="109"/>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="107"/>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="128" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="128" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="128"/>
-      <c r="L10" s="127" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="126" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="105"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="107"/>
-    </row>
-    <row r="13" spans="1:29" ht="16" customHeight="1">
-      <c r="A13" s="7">
-        <v>8</v>
-      </c>
       <c r="B13" s="12"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -6900,12 +6903,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="156" t="s">
+      <c r="R13" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -6927,10 +6930,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -6952,10 +6955,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -7088,7 +7091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF61175-6A71-ED42-9FE5-FCFCCDE24DAA}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -7096,103 +7099,103 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="200"/>
-      <c r="F1" s="198" t="s">
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200"/>
-      <c r="J1" s="198" t="s">
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="198" t="s">
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="201" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="200"/>
-      <c r="R1" s="198" t="s">
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+      <c r="Q1" s="203"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="200"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="202"/>
+      <c r="T1" s="202"/>
+      <c r="U1" s="203"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="206" t="s">
+      <c r="B2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="204" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="206" t="s">
+      <c r="F2" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="204" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="206" t="str">
+      <c r="J2" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="140" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="204" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="205"/>
-      <c r="P2" s="205" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="206" t="str">
+      <c r="N2" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="140" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="201" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="202"/>
-      <c r="T2" s="202" t="s">
-        <v>7</v>
-      </c>
-      <c r="U2" s="203" t="str">
+      <c r="R2" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
@@ -7227,16 +7230,16 @@
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="120"/>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="195" t="s">
+      <c r="I3" s="209" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="59"/>
@@ -7247,16 +7250,16 @@
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="164" t="s">
+      <c r="R3" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="138" t="s">
+      <c r="S3" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="136" t="s">
+      <c r="T3" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="140" t="s">
+      <c r="U3" s="151" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7268,10 +7271,10 @@
       <c r="C4" s="99"/>
       <c r="D4" s="99"/>
       <c r="E4" s="120"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="196"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="210"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
@@ -7280,10 +7283,10 @@
       <c r="O4" s="59"/>
       <c r="P4" s="59"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="137"/>
-      <c r="U4" s="141"/>
+      <c r="R4" s="175"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="152"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="18" t="s">
@@ -7314,28 +7317,28 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="171" t="s">
+      <c r="D6" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="194" t="s">
+      <c r="E6" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="194" t="s">
+      <c r="F6" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="171" t="s">
+      <c r="H6" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="197" t="s">
+      <c r="I6" s="208" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="59"/>
@@ -7355,14 +7358,14 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="194"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="197"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="208"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>
@@ -7380,14 +7383,14 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="197"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="208"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
       <c r="L8" s="59"/>
@@ -7521,96 +7524,96 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="194" t="s">
+      <c r="B13" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="171" t="s">
+      <c r="D13" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="194" t="s">
+      <c r="E13" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="194" t="s">
+      <c r="F13" s="207" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="171" t="s">
+      <c r="H13" s="182" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="194" t="s">
+      <c r="I13" s="207" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="59"/>
       <c r="L13" s="59"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155" t="s">
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="194"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="194"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="194"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="207"/>
+      <c r="F14" s="207"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="207"/>
       <c r="J14" s="12"/>
       <c r="K14" s="59"/>
       <c r="L14" s="59"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="194"/>
+      <c r="B15" s="207"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="207"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="197"/>
+      <c r="I15" s="207"/>
       <c r="J15" s="12"/>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -7717,23 +7720,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="B1:E1"/>
@@ -7750,6 +7736,23 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7768,48 +7771,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="132" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="132" t="s">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="132" t="s">
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="132" t="s">
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -7899,16 +7902,16 @@
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="164" t="s">
+      <c r="F3" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -7940,10 +7943,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="165"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -8002,16 +8005,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8035,10 +8038,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -8201,12 +8204,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="156" t="s">
+      <c r="R13" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -8228,10 +8231,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -8253,10 +8256,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -8397,48 +8400,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="132" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="132" t="s">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="132" t="s">
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="132" t="s">
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -8528,16 +8531,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -8569,10 +8572,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -8615,16 +8618,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="178" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8"/>
@@ -8648,10 +8651,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="169"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="179"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -8673,10 +8676,10 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="170"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="180"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8806,16 +8809,16 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="168" t="s">
+      <c r="E13" s="178" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
@@ -8826,27 +8829,27 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155" t="s">
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="169"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="179"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -8855,23 +8858,23 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="170"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="180"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -8880,14 +8883,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -8994,12 +8997,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -9008,13 +9012,12 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9033,48 +9036,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="132" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="132" t="s">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="132" t="s">
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="132" t="s">
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -9164,16 +9167,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -9205,10 +9208,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -9267,16 +9270,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9300,10 +9303,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -9466,12 +9469,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="156" t="s">
+      <c r="R13" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -9493,10 +9496,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -9518,10 +9521,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -9662,48 +9665,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="132" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="132" t="s">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="172"/>
+      <c r="J1" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="132" t="s">
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="172"/>
+      <c r="N1" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="132" t="s">
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="170" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -9793,16 +9796,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -9834,10 +9837,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -9880,56 +9883,56 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="178" t="s">
+      <c r="F6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="171" t="s">
+      <c r="H6" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="140" t="s">
+      <c r="I6" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="178" t="s">
+      <c r="J6" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="171" t="s">
+      <c r="L6" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="140" t="s">
+      <c r="M6" s="151" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9937,43 +9940,43 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="145"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="169"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="141"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="152"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -10028,26 +10031,26 @@
       <c r="I10" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="146" t="s">
+      <c r="J10" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="138" t="s">
+      <c r="K10" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="176" t="s">
+      <c r="L10" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="174" t="s">
+      <c r="M10" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="138" t="s">
+      <c r="N10" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="136"/>
-      <c r="P10" s="151" t="s">
+      <c r="O10" s="149"/>
+      <c r="P10" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="153"/>
+      <c r="Q10" s="155"/>
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
@@ -10073,14 +10076,14 @@
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="154"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="156"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -10115,28 +10118,28 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="168" t="s">
+      <c r="E13" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="178" t="s">
+      <c r="F13" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="136" t="s">
+      <c r="G13" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="171" t="s">
+      <c r="H13" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="140" t="s">
+      <c r="I13" s="151" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="67" t="s">
@@ -10149,68 +10152,68 @@
       <c r="M13" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155" t="s">
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="145"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="169"/>
       <c r="J14" s="67"/>
       <c r="K14" s="80"/>
       <c r="L14" s="80"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="141"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="152"/>
       <c r="J15" s="67"/>
       <c r="K15" s="80"/>
       <c r="L15" s="80"/>
       <c r="M15" s="70"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -10317,21 +10320,20 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="L6:L8"/>
@@ -10348,20 +10350,21 @@
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="J6:J8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="N13:Q15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10380,48 +10383,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="179" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182" t="s">
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="179" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182" t="s">
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -10511,10 +10514,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -10536,10 +10539,10 @@
       <c r="C4" s="35"/>
       <c r="D4" s="60"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -10582,68 +10585,68 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="178"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="140"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="151"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="151"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="140"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="147"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="151"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="169"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="145"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="179"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="169"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="137"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="141"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="152"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -10690,14 +10693,14 @@
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="174"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="136"/>
-      <c r="P10" s="151"/>
-      <c r="Q10" s="153"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="155"/>
       <c r="R10" s="40"/>
       <c r="S10" s="35"/>
       <c r="T10" s="41"/>
@@ -10715,14 +10718,14 @@
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="154"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="156"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -10757,76 +10760,76 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="140"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="151"/>
       <c r="J13" s="67"/>
       <c r="K13" s="34"/>
       <c r="L13" s="73"/>
       <c r="M13" s="70"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155"/>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="145"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="169"/>
       <c r="J14" s="67"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="141"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="152"/>
       <c r="J15" s="67"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="70"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -10930,16 +10933,25 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="N13:Q15"/>
     <mergeCell ref="R13:U15"/>
     <mergeCell ref="F6:F8"/>
@@ -10956,25 +10968,16 @@
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10993,48 +10996,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="179" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182" t="s">
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="179" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182" t="s">
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -11124,32 +11127,32 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="146" t="s">
+      <c r="N3" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="138" t="s">
+      <c r="O3" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="136" t="s">
+      <c r="P3" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="145" t="s">
+      <c r="Q3" s="169" t="s">
         <v>15</v>
       </c>
       <c r="R3" s="4"/>
@@ -11173,18 +11176,18 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="147"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="137"/>
-      <c r="Q4" s="141"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="152"/>
       <c r="R4" s="14"/>
       <c r="S4" s="15"/>
       <c r="T4" s="16"/>
@@ -11243,16 +11246,16 @@
       <c r="Q6" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11276,10 +11279,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -11438,18 +11441,18 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155" t="s">
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -11467,14 +11470,14 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -11492,14 +11495,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -11606,6 +11609,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="R13:U15"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
@@ -11621,12 +11630,6 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="R13:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11645,48 +11648,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="179" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182" t="s">
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="179" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182" t="s">
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -11776,16 +11779,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -11817,10 +11820,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -11863,16 +11866,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="168" t="s">
+      <c r="E6" s="178" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8"/>
@@ -11887,16 +11890,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11904,10 +11907,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="169"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="179"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -11920,19 +11923,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="170"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="180"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -12070,16 +12073,16 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="168" t="s">
+      <c r="E13" s="178" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
@@ -12100,21 +12103,21 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="156" t="s">
+      <c r="R13" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="169"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="179"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -12127,19 +12130,19 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="170"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="180"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -12152,10 +12155,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -12262,11 +12265,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
@@ -12280,12 +12284,11 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="R13:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12304,48 +12307,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="179" t="s">
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="182" t="s">
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="179" t="s">
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182" t="s">
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="132" t="s">
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="192"/>
+      <c r="V1" s="170" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135" t="s">
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="133"/>
-      <c r="AB1" s="133"/>
-      <c r="AC1" s="134"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="172"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -12435,16 +12438,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="146" t="s">
+      <c r="F3" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="136" t="s">
+      <c r="G3" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="138" t="s">
+      <c r="H3" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="140" t="s">
+      <c r="I3" s="151" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -12476,10 +12479,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="141"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -12522,16 +12525,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="146" t="s">
+      <c r="B6" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="185" t="s">
+      <c r="E6" s="195" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="8"/>
@@ -12546,16 +12549,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="146" t="s">
+      <c r="R6" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="136" t="s">
+      <c r="T6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="140" t="s">
+      <c r="U6" s="151" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12563,10 +12566,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="169"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="179"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -12579,19 +12582,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="139"/>
-      <c r="T7" s="137"/>
-      <c r="U7" s="141"/>
+      <c r="R7" s="146"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="150"/>
+      <c r="U7" s="152"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="170"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="180"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -12658,14 +12661,14 @@
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="138" t="s">
+      <c r="N10" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="136"/>
-      <c r="P10" s="151" t="s">
+      <c r="O10" s="149"/>
+      <c r="P10" s="153" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="153"/>
+      <c r="Q10" s="155"/>
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
@@ -12695,10 +12698,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="137"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="154"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="156"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -12733,16 +12736,16 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="138" t="s">
+      <c r="C13" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="168" t="s">
+      <c r="E13" s="178" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
@@ -12753,27 +12756,27 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="149"/>
-      <c r="P13" s="149"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="155" t="s">
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="156"/>
-      <c r="T13" s="156"/>
-      <c r="U13" s="157"/>
+      <c r="S13" s="158"/>
+      <c r="T13" s="158"/>
+      <c r="U13" s="159"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="169"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="179"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -12782,23 +12785,23 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="150"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="160"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="161"/>
+      <c r="T14" s="161"/>
+      <c r="U14" s="162"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="170"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="180"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -12807,14 +12810,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="161"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="163"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="165"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -12921,6 +12924,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
@@ -12935,21 +12953,6 @@
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Year 2-4/19-20/MEY4.xlsx
+++ b/Year 2-4/19-20/MEY4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ymx/Documents/GitHub/Class-timetables/Year 2-4/19-20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D4FD8-508E-3648-AA9D-369DB0F9A850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6956866-BCC7-C84E-91B8-FD6FD9A660EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29780" windowHeight="11260" firstSheet="4" activeTab="13" xr2:uid="{97E2D921-83E2-304B-A14E-2B0DFD2E41CD}"/>
+    <workbookView xWindow="2660" yWindow="8920" windowWidth="29780" windowHeight="11260" firstSheet="4" activeTab="16" xr2:uid="{97E2D921-83E2-304B-A14E-2B0DFD2E41CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="49">
   <si>
     <t>Monday</t>
   </si>
@@ -1024,7 +1024,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,211 +1407,16 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1624,6 +1429,213 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1949,48 +1961,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="170" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="170" t="s">
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="170" t="s">
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="170" t="s">
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -2076,28 +2088,28 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="147" t="s">
+      <c r="B3" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="147" t="s">
+      <c r="C3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="147" t="s">
+      <c r="D3" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -2117,14 +2129,14 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -2167,16 +2179,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="168" t="s">
+      <c r="C6" s="163" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="149" t="s">
+      <c r="D6" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="151" t="s">
+      <c r="E6" s="159" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="28"/>
@@ -2191,16 +2203,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2208,10 +2220,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="169"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="164"/>
       <c r="F7" s="28"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -2224,19 +2236,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="152"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="160"/>
       <c r="F8" s="28"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -2303,14 +2315,14 @@
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="147" t="s">
+      <c r="N10" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="149"/>
-      <c r="P10" s="153" t="s">
+      <c r="O10" s="155"/>
+      <c r="P10" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="155"/>
+      <c r="Q10" s="172"/>
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
@@ -2340,10 +2352,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="156"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="173"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -2390,18 +2402,18 @@
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
-      <c r="N13" s="142" t="s">
+      <c r="N13" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -2419,14 +2431,14 @@
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -2444,14 +2456,14 @@
       <c r="K15" s="33"/>
       <c r="L15" s="33"/>
       <c r="M15" s="33"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -2558,13 +2570,16 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R13:U15"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -2577,16 +2592,13 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2605,48 +2617,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="193" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="190" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193" t="s">
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="190" t="s">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -2736,16 +2748,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -2777,10 +2789,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -2839,16 +2851,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2872,10 +2884,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -3038,12 +3050,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="158" t="s">
+      <c r="R13" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -3065,10 +3077,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -3090,10 +3102,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -3234,48 +3246,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="193" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="190" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193" t="s">
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="190" t="s">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -3365,16 +3377,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -3385,16 +3397,16 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="198" t="s">
+      <c r="R3" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="198" t="s">
+      <c r="S3" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="199" t="s">
+      <c r="T3" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="200" t="s">
+      <c r="U3" s="209" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3414,10 +3426,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -3426,10 +3438,10 @@
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="13"/>
-      <c r="R4" s="198"/>
-      <c r="S4" s="198"/>
-      <c r="T4" s="199"/>
-      <c r="U4" s="200"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="208"/>
+      <c r="U4" s="209"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="18" t="s">
@@ -3472,28 +3484,28 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="145" t="s">
+      <c r="N6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="147" t="s">
+      <c r="O6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="182" t="s">
+      <c r="P6" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="151" t="s">
+      <c r="Q6" s="159" t="s">
         <v>25</v>
       </c>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="182" t="s">
+      <c r="T6" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3513,14 +3525,14 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="177"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="176"/>
-      <c r="S7" s="177"/>
-      <c r="T7" s="196"/>
-      <c r="U7" s="169"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="205"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="205"/>
+      <c r="U7" s="164"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -3538,14 +3550,14 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="197"/>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="146"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="152"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="158"/>
+      <c r="P8" s="206"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="166"/>
+      <c r="S8" s="158"/>
+      <c r="T8" s="206"/>
+      <c r="U8" s="160"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="18" t="s">
@@ -3596,16 +3608,16 @@
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="198" t="s">
+      <c r="N10" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="198" t="s">
+      <c r="O10" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="P10" s="199" t="s">
+      <c r="P10" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="200" t="s">
+      <c r="Q10" s="209" t="s">
         <v>19</v>
       </c>
       <c r="R10" s="59"/>
@@ -3629,10 +3641,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="198"/>
-      <c r="O11" s="198"/>
-      <c r="P11" s="199"/>
-      <c r="Q11" s="200"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="207"/>
+      <c r="P11" s="208"/>
+      <c r="Q11" s="209"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -3685,18 +3697,18 @@
       <c r="M13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -3714,14 +3726,14 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -3739,14 +3751,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -3853,19 +3865,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="T6:T8"/>
     <mergeCell ref="U6:U8"/>
     <mergeCell ref="N13:Q15"/>
@@ -3882,6 +3881,19 @@
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="R13:U15"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3900,48 +3912,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="193" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="190" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193" t="s">
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="190" t="s">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -4031,16 +4043,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="75"/>
@@ -4072,10 +4084,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="28"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -4118,16 +4130,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="187" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8"/>
@@ -4142,16 +4154,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4159,10 +4171,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="179"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="188"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -4175,19 +4187,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="180"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="189"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -4325,94 +4337,94 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="178" t="s">
+      <c r="E13" s="187" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="9"/>
       <c r="H13" s="37"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="145" t="s">
+      <c r="J13" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="149" t="s">
+      <c r="K13" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="182" t="s">
+      <c r="L13" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="M13" s="200" t="s">
+      <c r="M13" s="209" t="s">
         <v>12</v>
       </c>
       <c r="N13" s="77"/>
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="158" t="s">
+      <c r="R13" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="179"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="188"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="200"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="209"/>
       <c r="N14" s="77"/>
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="180"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="189"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="197"/>
-      <c r="M15" s="200"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="206"/>
+      <c r="M15" s="209"/>
       <c r="N15" s="77"/>
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -4519,12 +4531,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M15"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="J13:J15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
@@ -4538,15 +4553,12 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="M13:M15"/>
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4565,48 +4577,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="201" t="s">
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="201" t="s">
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="201" t="s">
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="201" t="s">
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -4696,16 +4708,16 @@
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="92"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="93"/>
@@ -4737,10 +4749,10 @@
       <c r="E4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="98"/>
       <c r="K4" s="99"/>
       <c r="L4" s="99"/>
@@ -4799,16 +4811,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4832,10 +4844,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -4903,14 +4915,14 @@
       <c r="K10" s="111"/>
       <c r="L10" s="112"/>
       <c r="M10" s="114"/>
-      <c r="N10" s="147" t="s">
+      <c r="N10" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="149"/>
-      <c r="P10" s="153" t="s">
+      <c r="O10" s="155"/>
+      <c r="P10" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="155"/>
+      <c r="Q10" s="172"/>
       <c r="R10" s="126" t="s">
         <v>20</v>
       </c>
@@ -4940,10 +4952,10 @@
       <c r="K11" s="111"/>
       <c r="L11" s="112"/>
       <c r="M11" s="114"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="156"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="173"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -4998,18 +5010,18 @@
       <c r="M13" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -5027,14 +5039,14 @@
       <c r="K14" s="111"/>
       <c r="L14" s="111"/>
       <c r="M14" s="100"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -5052,14 +5064,14 @@
       <c r="K15" s="111"/>
       <c r="L15" s="111"/>
       <c r="M15" s="100"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -5166,11 +5178,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="N13:Q15"/>
@@ -5187,6 +5194,11 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="R13:U15"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5197,7 +5209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C35BD9F-A5E8-4A47-B1CC-F66903582EA6}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:U19"/>
     </sheetView>
   </sheetViews>
@@ -5205,48 +5217,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="201" t="s">
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="201" t="s">
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="201" t="s">
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="201" t="s">
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -5336,16 +5348,16 @@
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="92"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="93"/>
@@ -5369,10 +5381,10 @@
       <c r="C4" s="134"/>
       <c r="D4" s="132"/>
       <c r="E4" s="68"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="98"/>
       <c r="K4" s="99"/>
       <c r="L4" s="99"/>
@@ -5415,16 +5427,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="204" t="s">
+      <c r="D6" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="207" t="s">
+      <c r="E6" s="216" t="s">
         <v>47</v>
       </c>
       <c r="F6" s="98"/>
@@ -5448,10 +5460,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="207"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="216"/>
       <c r="F7" s="98"/>
       <c r="G7" s="99"/>
       <c r="H7" s="99"/>
@@ -5473,10 +5485,10 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="207"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="98"/>
       <c r="G8" s="99"/>
       <c r="H8" s="99"/>
@@ -5492,7 +5504,7 @@
       <c r="R8" s="59"/>
       <c r="S8" s="30"/>
       <c r="T8" s="108"/>
-      <c r="U8" s="211"/>
+      <c r="U8" s="146"/>
     </row>
     <row r="9" spans="1:29">
       <c r="A9" s="18" t="s">
@@ -5513,9 +5525,9 @@
       <c r="N9" s="25"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
-      <c r="Q9" s="212"/>
-      <c r="R9" s="213"/>
-      <c r="S9" s="213"/>
+      <c r="Q9" s="147"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
       <c r="T9" s="104"/>
       <c r="U9" s="123"/>
     </row>
@@ -5541,8 +5553,8 @@
       <c r="Q10" s="89"/>
       <c r="R10" s="59"/>
       <c r="S10" s="59"/>
-      <c r="T10" s="214"/>
-      <c r="U10" s="215"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="150"/>
     </row>
     <row r="11" spans="1:29">
       <c r="A11" s="7">
@@ -5620,12 +5632,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="158" t="s">
+      <c r="R13" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -5647,10 +5659,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -5672,10 +5684,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -5782,13 +5794,7 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R13:U15"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -5797,7 +5803,13 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5816,58 +5828,58 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="201" t="s">
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="201" t="s">
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="201" t="s">
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="201" t="s">
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136" t="s">
+      <c r="B2" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="137" t="s">
@@ -5883,33 +5895,33 @@
       <c r="I2" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136" t="s">
+      <c r="J2" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="144"/>
+      <c r="L2" s="144" t="s">
         <v>7</v>
       </c>
       <c r="M2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="N2" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136" t="s">
+      <c r="N2" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="144"/>
+      <c r="P2" s="144" t="s">
         <v>7</v>
       </c>
       <c r="Q2" s="137" t="str">
         <f>E2</f>
         <v>Venue</v>
       </c>
-      <c r="R2" s="135" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136" t="s">
+      <c r="R2" s="143" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="144"/>
+      <c r="T2" s="144" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="137" t="str">
@@ -5947,16 +5959,16 @@
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="92"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="93"/>
@@ -5979,19 +5991,19 @@
       <c r="B4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="132" t="s">
+      <c r="C4" s="142" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="145" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="98"/>
       <c r="K4" s="99"/>
       <c r="L4" s="99"/>
@@ -6034,40 +6046,48 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
+      <c r="B6" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="159" t="s">
+        <v>25</v>
+      </c>
       <c r="F6" s="121"/>
       <c r="G6" s="99"/>
       <c r="H6" s="99"/>
       <c r="I6" s="100"/>
-      <c r="J6" s="134" t="s">
+      <c r="J6" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="K6" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="132" t="s">
+      <c r="L6" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="134" t="s">
+      <c r="M6" s="145" t="s">
         <v>25</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6075,34 +6095,34 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="160"/>
       <c r="F7" s="121"/>
       <c r="G7" s="99"/>
       <c r="H7" s="99"/>
       <c r="I7" s="100"/>
-      <c r="J7" s="134" t="s">
+      <c r="J7" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="134" t="s">
+      <c r="K7" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="132" t="s">
+      <c r="L7" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="134" t="s">
+      <c r="M7" s="145" t="s">
         <v>25</v>
       </c>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -6158,20 +6178,28 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="134" t="s">
+      <c r="B10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="134" t="s">
+      <c r="G10" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="134" t="s">
+      <c r="I10" s="145" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="110"/>
@@ -6185,7 +6213,7 @@
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="132" t="s">
+      <c r="S10" s="142" t="s">
         <v>28</v>
       </c>
       <c r="T10" s="41" t="s">
@@ -6261,18 +6289,18 @@
       <c r="K13" s="99"/>
       <c r="L13" s="111"/>
       <c r="M13" s="100"/>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -6290,14 +6318,14 @@
       <c r="K14" s="111"/>
       <c r="L14" s="111"/>
       <c r="M14" s="100"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -6315,14 +6343,14 @@
       <c r="K15" s="111"/>
       <c r="L15" s="111"/>
       <c r="M15" s="100"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -6428,7 +6456,19 @@
       <c r="U19" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="21">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="N13:Q15"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
@@ -6438,14 +6478,6 @@
     <mergeCell ref="R13:U15"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6464,48 +6496,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="201" t="s">
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="201" t="s">
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="201" t="s">
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="201" t="s">
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -6595,16 +6627,16 @@
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="92"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="93"/>
@@ -6636,10 +6668,10 @@
       <c r="E4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="98"/>
       <c r="K4" s="99"/>
       <c r="L4" s="99"/>
@@ -6698,16 +6730,16 @@
       <c r="O6" s="59"/>
       <c r="P6" s="59"/>
       <c r="Q6" s="12"/>
-      <c r="R6" s="174" t="s">
+      <c r="R6" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6731,10 +6763,10 @@
       <c r="O7" s="59"/>
       <c r="P7" s="59"/>
       <c r="Q7" s="12"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -6903,12 +6935,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="158" t="s">
+      <c r="R13" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -6930,10 +6962,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -6955,10 +6987,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -7091,7 +7123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF61175-6A71-ED42-9FE5-FCFCCDE24DAA}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -7099,48 +7131,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="201" t="s">
+      <c r="B1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="202"/>
-      <c r="D1" s="202"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="201" t="s">
+      <c r="C1" s="211"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="202"/>
-      <c r="H1" s="202"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="201" t="s">
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="202"/>
-      <c r="L1" s="202"/>
-      <c r="M1" s="203"/>
-      <c r="N1" s="201" t="s">
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="202"/>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="203"/>
-      <c r="R1" s="201" t="s">
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="202"/>
-      <c r="T1" s="202"/>
-      <c r="U1" s="203"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="212"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -7230,16 +7262,16 @@
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="120"/>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="209" t="s">
+      <c r="I3" s="217" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="59"/>
@@ -7250,16 +7282,16 @@
       <c r="O3" s="59"/>
       <c r="P3" s="59"/>
       <c r="Q3" s="12"/>
-      <c r="R3" s="174" t="s">
+      <c r="R3" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="147" t="s">
+      <c r="S3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="149" t="s">
+      <c r="T3" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="151" t="s">
+      <c r="U3" s="159" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7271,10 +7303,10 @@
       <c r="C4" s="99"/>
       <c r="D4" s="99"/>
       <c r="E4" s="120"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="210"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
       <c r="L4" s="59"/>
@@ -7283,10 +7315,10 @@
       <c r="O4" s="59"/>
       <c r="P4" s="59"/>
       <c r="Q4" s="12"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="152"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="158"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="160"/>
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="18" t="s">
@@ -7317,28 +7349,28 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="182" t="s">
+      <c r="D6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="207" t="s">
+      <c r="E6" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="207" t="s">
+      <c r="F6" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="182" t="s">
+      <c r="H6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="208" t="s">
+      <c r="I6" s="219" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="59"/>
@@ -7358,14 +7390,14 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="208"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="216"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="205"/>
+      <c r="I7" s="219"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
       <c r="L7" s="59"/>
@@ -7383,14 +7415,14 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="207"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="207"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="208"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="206"/>
+      <c r="I8" s="219"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
       <c r="L8" s="59"/>
@@ -7524,96 +7556,96 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="182" t="s">
+      <c r="D13" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="207" t="s">
+      <c r="E13" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="207" t="s">
+      <c r="F13" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="149" t="s">
+      <c r="G13" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="182" t="s">
+      <c r="H13" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="207" t="s">
+      <c r="I13" s="216" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="59"/>
       <c r="L13" s="59"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="207"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="207"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="207"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="216"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="216"/>
       <c r="J14" s="12"/>
       <c r="K14" s="59"/>
       <c r="L14" s="59"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="207"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="197"/>
-      <c r="I15" s="207"/>
+      <c r="B15" s="216"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="206"/>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="216"/>
       <c r="J15" s="12"/>
       <c r="K15" s="59"/>
       <c r="L15" s="59"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -7720,6 +7752,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
     <mergeCell ref="V1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="B1:E1"/>
@@ -7736,23 +7785,6 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7771,48 +7803,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="170" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="170" t="s">
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="170" t="s">
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="170" t="s">
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -7902,16 +7934,16 @@
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
-      <c r="F3" s="174" t="s">
+      <c r="F3" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -7943,10 +7975,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="175"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -8005,16 +8037,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8038,10 +8070,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -8204,12 +8236,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="158" t="s">
+      <c r="R13" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -8231,10 +8263,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -8256,10 +8288,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -8400,48 +8432,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="170" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="170" t="s">
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="170" t="s">
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="170" t="s">
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -8531,16 +8563,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -8572,10 +8604,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -8618,16 +8650,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="187" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8"/>
@@ -8651,10 +8683,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="179"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="188"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -8676,10 +8708,10 @@
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="180"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="189"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -8809,16 +8841,16 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="178" t="s">
+      <c r="E13" s="187" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
@@ -8829,27 +8861,27 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="179"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="188"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -8858,23 +8890,23 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="180"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="189"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -8883,14 +8915,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -8997,13 +9029,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
@@ -9012,12 +9043,13 @@
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9036,48 +9068,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="170" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="170" t="s">
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="170" t="s">
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="170" t="s">
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -9167,16 +9199,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -9208,10 +9240,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -9270,16 +9302,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9303,10 +9335,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -9469,12 +9501,12 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="158" t="s">
+      <c r="R13" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -9496,10 +9528,10 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -9521,10 +9553,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -9665,48 +9697,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="170" t="s">
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="172"/>
-      <c r="J1" s="170" t="s">
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="172"/>
-      <c r="N1" s="170" t="s">
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="170" t="s">
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="172"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="152"/>
+      <c r="T1" s="152"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29" ht="17" thickBot="1">
       <c r="A2" s="64" t="s">
@@ -9796,16 +9828,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -9837,10 +9869,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -9883,56 +9915,56 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="181" t="s">
+      <c r="F6" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="149" t="s">
+      <c r="G6" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="182" t="s">
+      <c r="H6" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="151" t="s">
+      <c r="I6" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="181" t="s">
+      <c r="J6" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="149" t="s">
+      <c r="K6" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="182" t="s">
+      <c r="L6" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="151" t="s">
+      <c r="M6" s="159" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -9940,43 +9972,43 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="169"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="164"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="152"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="160"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -10031,26 +10063,26 @@
       <c r="I10" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="147" t="s">
+      <c r="K10" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="187" t="s">
+      <c r="L10" s="195" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="185" t="s">
+      <c r="M10" s="193" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="147" t="s">
+      <c r="N10" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="149"/>
-      <c r="P10" s="153" t="s">
+      <c r="O10" s="155"/>
+      <c r="P10" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="155"/>
+      <c r="Q10" s="172"/>
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
@@ -10076,14 +10108,14 @@
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="156"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="173"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -10118,28 +10150,28 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="178" t="s">
+      <c r="E13" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="181" t="s">
+      <c r="F13" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="149" t="s">
+      <c r="G13" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="182" t="s">
+      <c r="H13" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="151" t="s">
+      <c r="I13" s="159" t="s">
         <v>12</v>
       </c>
       <c r="J13" s="67" t="s">
@@ -10152,68 +10184,68 @@
       <c r="M13" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="169"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="164"/>
       <c r="J14" s="67"/>
       <c r="K14" s="80"/>
       <c r="L14" s="80"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="152"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="160"/>
       <c r="J15" s="67"/>
       <c r="K15" s="80"/>
       <c r="L15" s="80"/>
       <c r="M15" s="70"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -10320,20 +10352,21 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="L6:L8"/>
@@ -10350,21 +10383,20 @@
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="J6:J8"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R13:U15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10383,48 +10415,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="193" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="190" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193" t="s">
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="190" t="s">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -10514,10 +10546,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="151"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="159"/>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -10539,10 +10571,10 @@
       <c r="C4" s="35"/>
       <c r="D4" s="60"/>
       <c r="E4" s="34"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -10585,68 +10617,68 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="189"/>
-      <c r="M6" s="151"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="157"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="159"/>
+      <c r="J6" s="197"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="203"/>
+      <c r="M6" s="159"/>
       <c r="N6" s="11"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="149"/>
-      <c r="U6" s="151"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="159"/>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="183"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="169"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="191"/>
+      <c r="M7" s="164"/>
       <c r="N7" s="11"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="152"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="160"/>
       <c r="N8" s="11"/>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -10693,14 +10725,14 @@
       <c r="G10" s="34"/>
       <c r="H10" s="35"/>
       <c r="I10" s="34"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="147"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="155"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="195"/>
+      <c r="M10" s="193"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="172"/>
       <c r="R10" s="40"/>
       <c r="S10" s="35"/>
       <c r="T10" s="41"/>
@@ -10718,14 +10750,14 @@
       <c r="G11" s="37"/>
       <c r="H11" s="38"/>
       <c r="I11" s="44"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="156"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="158"/>
+      <c r="L11" s="196"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="173"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -10760,76 +10792,76 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="145"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="189"/>
-      <c r="I13" s="151"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="197"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="159"/>
       <c r="J13" s="67"/>
       <c r="K13" s="34"/>
       <c r="L13" s="73"/>
       <c r="M13" s="70"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157"/>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="169"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="164"/>
       <c r="J14" s="67"/>
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
       <c r="M14" s="70"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="184"/>
-      <c r="I15" s="152"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="160"/>
       <c r="J15" s="67"/>
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
       <c r="M15" s="70"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -10933,25 +10965,16 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
     <mergeCell ref="N13:Q15"/>
     <mergeCell ref="R13:U15"/>
     <mergeCell ref="F6:F8"/>
@@ -10968,16 +10991,25 @@
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="N10:N11"/>
     <mergeCell ref="O10:O11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10996,48 +11028,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="193" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="190" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193" t="s">
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="190" t="s">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -11127,32 +11159,32 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="145" t="s">
+      <c r="N3" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="147" t="s">
+      <c r="O3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="149" t="s">
+      <c r="P3" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="169" t="s">
+      <c r="Q3" s="164" t="s">
         <v>15</v>
       </c>
       <c r="R3" s="4"/>
@@ -11176,18 +11208,18 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="152"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="160"/>
       <c r="R4" s="14"/>
       <c r="S4" s="15"/>
       <c r="T4" s="16"/>
@@ -11246,16 +11278,16 @@
       <c r="Q6" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11279,10 +11311,10 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
@@ -11441,18 +11473,18 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
@@ -11470,14 +11502,14 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
@@ -11495,14 +11527,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -11609,12 +11641,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="N13:Q15"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="R13:U15"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
@@ -11630,6 +11656,12 @@
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="N13:Q15"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="R13:U15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11648,48 +11680,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="193" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="190" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193" t="s">
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="190" t="s">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -11779,16 +11811,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -11820,10 +11852,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -11866,16 +11898,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="178" t="s">
+      <c r="E6" s="187" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="8"/>
@@ -11890,16 +11922,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -11907,10 +11939,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="179"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="188"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -11923,19 +11955,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="180"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="189"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -12073,16 +12105,16 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="178" t="s">
+      <c r="E13" s="187" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
@@ -12103,21 +12135,21 @@
       <c r="O13" s="72"/>
       <c r="P13" s="72"/>
       <c r="Q13" s="72"/>
-      <c r="R13" s="158" t="s">
+      <c r="R13" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="179"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="188"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -12130,19 +12162,19 @@
       <c r="O14" s="72"/>
       <c r="P14" s="72"/>
       <c r="Q14" s="72"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="180"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="189"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -12155,10 +12187,10 @@
       <c r="O15" s="72"/>
       <c r="P15" s="72"/>
       <c r="Q15" s="72"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -12265,12 +12297,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="R13:U15"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="R6:R7"/>
     <mergeCell ref="S6:S7"/>
@@ -12284,11 +12315,12 @@
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="R13:U15"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12307,48 +12339,48 @@
   <sheetData>
     <row r="1" spans="1:29" ht="17" thickBot="1">
       <c r="A1" s="63"/>
-      <c r="B1" s="190" t="s">
+      <c r="B1" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="193" t="s">
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="190" t="s">
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193" t="s">
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="190" t="s">
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="170" t="s">
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="172"/>
-      <c r="Z1" s="173" t="s">
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="172"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="153"/>
     </row>
     <row r="2" spans="1:29">
       <c r="A2" s="64" t="s">
@@ -12438,16 +12470,16 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="149" t="s">
+      <c r="G3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="159" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="1"/>
@@ -12479,10 +12511,10 @@
       <c r="E4" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="152"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="160"/>
       <c r="J4" s="8"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -12525,16 +12557,16 @@
       <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="195" t="s">
+      <c r="E6" s="204" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="8"/>
@@ -12549,16 +12581,16 @@
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="145" t="s">
+      <c r="R6" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="147" t="s">
+      <c r="S6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="149" t="s">
+      <c r="T6" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="159" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12566,10 +12598,10 @@
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="179"/>
+      <c r="B7" s="185"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="188"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -12582,19 +12614,19 @@
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="146"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="150"/>
-      <c r="U7" s="152"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="158"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="160"/>
     </row>
     <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="180"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="189"/>
       <c r="F8" s="8"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
@@ -12661,14 +12693,14 @@
       <c r="K10" s="37"/>
       <c r="L10" s="38"/>
       <c r="M10" s="39"/>
-      <c r="N10" s="147" t="s">
+      <c r="N10" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="149"/>
-      <c r="P10" s="153" t="s">
+      <c r="O10" s="155"/>
+      <c r="P10" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="155"/>
+      <c r="Q10" s="172"/>
       <c r="R10" s="40" t="s">
         <v>20</v>
       </c>
@@ -12698,10 +12730,10 @@
       <c r="K11" s="37"/>
       <c r="L11" s="38"/>
       <c r="M11" s="39"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="156"/>
+      <c r="N11" s="158"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="173"/>
       <c r="R11" s="33"/>
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
@@ -12736,16 +12768,16 @@
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="147" t="s">
+      <c r="D13" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="178" t="s">
+      <c r="E13" s="187" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="36"/>
@@ -12756,27 +12788,27 @@
       <c r="K13" s="9"/>
       <c r="L13" s="37"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="143" t="s">
+      <c r="N13" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="157" t="s">
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="159"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="176"/>
     </row>
     <row r="14" spans="1:29">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="179"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="188"/>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
@@ -12785,23 +12817,23 @@
       <c r="K14" s="37"/>
       <c r="L14" s="37"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="162"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="179"/>
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="180"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="189"/>
       <c r="F15" s="36"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -12810,14 +12842,14 @@
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="165"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="180"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="182"/>
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="18" t="s">
@@ -12924,21 +12956,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
@@ -12953,6 +12970,21 @@
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
